--- a/results/I3_N5_M2_T30_C150_DepCentral_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>575.8867247436135</v>
+        <v>422.714365082849</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.25</v>
+        <v>0.3570001125335693</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.09317581765922</v>
+        <v>22.71436508284903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.903182505555058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.516731437002262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>554.1799999945072</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -863,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.06242604510595</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -871,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>20.66483080554374</v>
       </c>
     </row>
     <row r="5">
@@ -879,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677585</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -887,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.99312545677583</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.29375422704606</v>
+        <v>21.9585850325899</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>203.8839999995571</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>115.2719999999218</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>151.5340000000216</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000047</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>162.8109999997367</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>151.5340000000379</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>203.883999999414</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.534000000037423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>53.8839999994133</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,34 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
